--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,216 +43,201 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>waste</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>one</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -277,48 +262,48 @@
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>love</t>
+    <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
@@ -326,6 +311,9 @@
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -686,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -755,13 +743,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -773,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -797,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -805,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -823,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -847,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -855,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8064516129032258</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -873,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>0.6881720430107527</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M5">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -897,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -905,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7746478873239436</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -923,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K6">
         <v>0.6037735849056604</v>
@@ -955,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7669902912621359</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -973,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K7">
         <v>0.546875</v>
@@ -1005,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.765625</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1023,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K8">
-        <v>0.5072463768115942</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1047,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1055,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.722972972972973</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1073,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K9">
-        <v>0.4487284659557014</v>
+        <v>0.4385245901639344</v>
       </c>
       <c r="L9">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="M9">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>672</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1105,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6421052631578947</v>
+        <v>0.71875</v>
       </c>
       <c r="C10">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1123,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K10">
-        <v>0.4107883817427386</v>
+        <v>0.4195402298850575</v>
       </c>
       <c r="L10">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="M10">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>284</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1155,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6386554621848739</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1173,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K11">
-        <v>0.4074605451936872</v>
+        <v>0.3775933609958506</v>
       </c>
       <c r="L11">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="M11">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1197,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>413</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1205,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6111111111111112</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1223,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K12">
-        <v>0.3386243386243386</v>
+        <v>0.308868501529052</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1247,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>125</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1255,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6052631578947368</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1273,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>0.3313253012048193</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L13">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1297,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1305,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6041666666666666</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1323,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K14">
-        <v>0.290519877675841</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1347,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>232</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1355,13 +1343,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6024096385542169</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1373,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K15">
-        <v>0.275</v>
+        <v>0.283132530120482</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1397,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1405,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5789473684210527</v>
+        <v>0.5433070866141733</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1423,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K16">
-        <v>0.1971830985915493</v>
+        <v>0.21875</v>
       </c>
       <c r="L16">
         <v>28</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1455,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5594202898550724</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C17">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1473,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K17">
-        <v>0.1875</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1497,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>104</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1505,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5272727272727272</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1523,31 +1511,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K18">
-        <v>0.1686746987951807</v>
+        <v>0.1901408450704225</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>207</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1555,49 +1543,49 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5238095238095238</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="L19">
         <v>22</v>
       </c>
-      <c r="D19">
+      <c r="M19">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19">
-        <v>0.1513513513513514</v>
-      </c>
-      <c r="L19">
-        <v>28</v>
-      </c>
-      <c r="M19">
-        <v>29</v>
-      </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>157</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1605,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5118110236220472</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1623,31 +1611,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K20">
-        <v>0.1503957783641161</v>
+        <v>0.1624231782265145</v>
       </c>
       <c r="L20">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M20">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>966</v>
+        <v>954</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1655,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5111111111111111</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1673,31 +1661,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K21">
-        <v>0.1309192200557103</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>312</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1705,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.492063492063492</v>
+        <v>0.4644549763033176</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1723,31 +1711,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K22">
-        <v>0.1067013662979831</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="L22">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1373</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1755,13 +1743,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4814814814814815</v>
+        <v>0.4453125</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1773,19 +1761,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K23">
-        <v>0.07430340557275542</v>
+        <v>0.09446254071661238</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="N23">
         <v>0.96</v>
@@ -1797,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>299</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1805,13 +1793,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4296875</v>
+        <v>0.405940594059406</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1823,31 +1811,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K24">
-        <v>0.07277628032345014</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N24">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="O24">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1855,13 +1843,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4265402843601896</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C25">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1873,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K25">
-        <v>0.05361930294906166</v>
+        <v>0.05495978552278821</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>0.87</v>
@@ -1897,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1905,13 +1893,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3960396039603961</v>
+        <v>0.390625</v>
       </c>
       <c r="C26">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1923,31 +1911,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K26">
-        <v>0.0430416068866571</v>
+        <v>0.04136947218259629</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N26">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="O26">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1955,13 +1943,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3880597014925373</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1973,7 +1961,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27">
+        <v>0.03971119133574007</v>
+      </c>
+      <c r="L27">
+        <v>22</v>
+      </c>
+      <c r="M27">
+        <v>33</v>
+      </c>
+      <c r="N27">
+        <v>0.67</v>
+      </c>
+      <c r="O27">
+        <v>0.33</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1981,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3833333333333334</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1999,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2007,13 +2019,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3770491803278688</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2025,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2033,25 +2045,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.358974358974359</v>
+        <v>0.3056994818652849</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D30">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>75</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2059,25 +2071,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3163636363636363</v>
+        <v>0.295</v>
       </c>
       <c r="C31">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D31">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E31">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>188</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2085,13 +2097,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.303370786516854</v>
+        <v>0.2943037974683544</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2103,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>62</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2111,13 +2123,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2989690721649484</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="C33">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D33">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2129,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>136</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2137,13 +2149,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2959183673469388</v>
+        <v>0.2689873417721519</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2155,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>69</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2163,13 +2175,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2943037974683544</v>
+        <v>0.2551928783382789</v>
       </c>
       <c r="C35">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="D35">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2181,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>223</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2189,25 +2201,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2863501483679525</v>
+        <v>0.2523364485981308</v>
       </c>
       <c r="C36">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>481</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2215,13 +2227,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2857142857142857</v>
+        <v>0.2484076433121019</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2233,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2241,13 +2253,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2689873417721519</v>
+        <v>0.2476635514018692</v>
       </c>
       <c r="C38">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D38">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2259,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>231</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2267,13 +2279,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2680412371134021</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2285,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2293,13 +2305,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2628571428571428</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C40">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2311,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>129</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2319,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2547770700636943</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="D41">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>117</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2345,25 +2357,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2523364485981308</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E42">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2371,13 +2383,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.23</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2389,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>154</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2397,25 +2409,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2242990654205607</v>
+        <v>0.2094240837696335</v>
       </c>
       <c r="C44">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D44">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2423,13 +2435,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2441,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2449,25 +2461,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2092511013215859</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>23</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>95</v>
-      </c>
-      <c r="D46">
-        <v>95</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2475,13 +2487,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.203125</v>
+        <v>0.193717277486911</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2493,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>102</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2501,25 +2513,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2021857923497268</v>
+        <v>0.1815561959654179</v>
       </c>
       <c r="C48">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D48">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>146</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2527,25 +2539,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C49">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E49">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>196</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2553,13 +2565,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1947565543071161</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C50">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2571,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>215</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2579,25 +2591,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1902017291066282</v>
+        <v>0.1676136363636364</v>
       </c>
       <c r="C51">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D51">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E51">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F51">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2605,13 +2617,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.189041095890411</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="C52">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D52">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2623,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>296</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2631,13 +2643,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.183206106870229</v>
+        <v>0.1561643835616438</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2649,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>107</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2657,25 +2669,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.162303664921466</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C54">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2683,25 +2695,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1614906832298137</v>
+        <v>0.145748987854251</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>135</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2709,25 +2721,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1595744680851064</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D56">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E56">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F56">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>158</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2735,25 +2747,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1379310344827586</v>
+        <v>0.1367713004484305</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E57">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F57">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>150</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2761,25 +2773,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1354166666666667</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="C58">
         <v>26</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2787,25 +2799,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1304347826086956</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="C59">
+        <v>23</v>
+      </c>
+      <c r="D59">
         <v>24</v>
       </c>
-      <c r="D59">
-        <v>26</v>
-      </c>
       <c r="E59">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F59">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2813,25 +2825,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1286549707602339</v>
+        <v>0.1165413533834586</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D60">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>149</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2839,25 +2851,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1274787535410765</v>
+        <v>0.1129411764705882</v>
       </c>
       <c r="C61">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D61">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E61">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="F61">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>308</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2865,25 +2877,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1265822784810127</v>
+        <v>0.1043165467625899</v>
       </c>
       <c r="C62">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D62">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E62">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F62">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2891,25 +2903,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1224489795918367</v>
+        <v>0.09206349206349207</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D63">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>172</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2917,25 +2929,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1208609271523179</v>
+        <v>0.07800511508951406</v>
       </c>
       <c r="C64">
+        <v>61</v>
+      </c>
+      <c r="D64">
         <v>73</v>
       </c>
-      <c r="D64">
-        <v>77</v>
-      </c>
       <c r="E64">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="F64">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>531</v>
+        <v>721</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2943,25 +2955,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1142857142857143</v>
+        <v>0.07728337236533958</v>
       </c>
       <c r="C65">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>248</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2969,25 +2981,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1051454138702461</v>
+        <v>0.06811145510835913</v>
       </c>
       <c r="C66">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D66">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E66">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="F66">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>400</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2995,25 +3007,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1023255813953488</v>
+        <v>0.06224899598393574</v>
       </c>
       <c r="C67">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D67">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E67">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="F67">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>386</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3021,13 +3033,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08254716981132075</v>
+        <v>0.04935622317596566</v>
       </c>
       <c r="C68">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E68">
         <v>0.12</v>
@@ -3039,137 +3051,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.06958250497017893</v>
-      </c>
-      <c r="C69">
-        <v>35</v>
-      </c>
-      <c r="D69">
-        <v>36</v>
-      </c>
-      <c r="E69">
-        <v>0.03</v>
-      </c>
-      <c r="F69">
-        <v>0.97</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.0670995670995671</v>
-      </c>
-      <c r="C70">
-        <v>31</v>
-      </c>
-      <c r="D70">
-        <v>38</v>
-      </c>
-      <c r="E70">
-        <v>0.18</v>
-      </c>
-      <c r="F70">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.06635802469135803</v>
-      </c>
-      <c r="C71">
-        <v>43</v>
-      </c>
-      <c r="D71">
-        <v>50</v>
-      </c>
-      <c r="E71">
-        <v>0.14</v>
-      </c>
-      <c r="F71">
-        <v>0.86</v>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.06552706552706553</v>
-      </c>
-      <c r="C72">
-        <v>23</v>
-      </c>
-      <c r="D72">
-        <v>23</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.06369426751592357</v>
-      </c>
-      <c r="C73">
-        <v>50</v>
-      </c>
-      <c r="D73">
-        <v>59</v>
-      </c>
-      <c r="E73">
-        <v>0.15</v>
-      </c>
-      <c r="F73">
-        <v>0.85</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>735</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
